--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensor BLE" sheetId="1" r:id="rId1"/>
+    <sheet name="BKR01AT" sheetId="1" r:id="rId1"/>
     <sheet name="ComponentsLib" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
   <si>
     <t>Chave única</t>
   </si>
@@ -43,24 +43,12 @@
     <t>Datasheet</t>
   </si>
   <si>
-    <t>Antenna_Chipsensor_ble:2450AT18B100</t>
-  </si>
-  <si>
-    <t>2450AT18B100</t>
-  </si>
-  <si>
-    <t>Battery_CellBattery:Battery_Panasonic_CR2032-VS1N_Vertical_CircularHoles</t>
-  </si>
-  <si>
     <t>Not Fitted</t>
   </si>
   <si>
     <t>12pFCapacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>CC0402JRNPO9BN120</t>
-  </si>
-  <si>
     <t>AE1</t>
   </si>
   <si>
@@ -70,9 +58,6 @@
     <t>CC0402JRNPO9BN101</t>
   </si>
   <si>
-    <t>NFCapacitor_SMD:C_0402_1005Metric</t>
-  </si>
-  <si>
     <t>Not Fitted CAP</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>LQG15WH15NJ02D</t>
   </si>
   <si>
-    <t>10uHInductor_SMD:L_0805_2012Metric</t>
-  </si>
-  <si>
     <t>MLZ2012E100MT000</t>
   </si>
   <si>
@@ -136,21 +118,6 @@
     <t>NFResistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
-    <t>Nrf52810-QCAAPackage_DFN_QFN:QFN-32-1EP_5x5mm_P0.5mm_EP3.6x3.6mm</t>
-  </si>
-  <si>
-    <t>nRF52810-QCAA-T</t>
-  </si>
-  <si>
-    <t>BME280Package_LGA:Bosch_LGA-8_2.5x2.5mm_P0.65mm_ClockwisePinNumbering</t>
-  </si>
-  <si>
-    <t>BME280</t>
-  </si>
-  <si>
-    <t>32,768KHzCrystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
-  </si>
-  <si>
     <t>CM7V-T1A-32.768KHZ-9PF-20PPM-TA-QC</t>
   </si>
   <si>
@@ -283,9 +250,6 @@
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
-    <t>10nH</t>
-  </si>
-  <si>
     <t>3.9nH</t>
   </si>
   <si>
@@ -353,13 +317,94 @@
   </si>
   <si>
     <t>Red LED</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>GRM0225C1E120GA03L</t>
+  </si>
+  <si>
+    <t>GRM0225C1ER80BA03L</t>
+  </si>
+  <si>
+    <t>0.8pFCapacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>1.2pFCapacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>10uFCapacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>GRM0225C1E1R2BA03L</t>
+  </si>
+  <si>
+    <t>GRM155R60G106ME44J</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_2016-4Pin_2.0x1.6mm</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
+    <t>MountingHoleMountingHole:MountingHole_3.2mm_M3</t>
+  </si>
+  <si>
+    <t>32.768KHzCrystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
+    <t>CRCW0603100RJNEAC</t>
+  </si>
+  <si>
+    <t>100Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>10kResistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>CRCW040210K0FKEDC</t>
+  </si>
+  <si>
+    <t>N.C.Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_EvenConnector:Tag-Connect_TC2030-IDC-NL_2x03_P1.27mm_Vertical</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>10uHInductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>LQG15HS3N9C02D</t>
+  </si>
+  <si>
+    <t>3.9nHInductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>3.3nHInductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>2.7nHInductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>LQG15HS3N3S02D</t>
+  </si>
+  <si>
+    <t>LQG15HN2N7C02D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -392,6 +437,17 @@
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -430,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,11 +518,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -790,7 +877,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -807,7 +894,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
@@ -835,20 +922,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="4"/>
@@ -878,20 +965,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="4"/>
@@ -921,17 +1008,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D4,E4),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>C0402C105K9PACTU</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="4"/>
       <c r="J4" s="7"/>
@@ -960,17 +1052,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D5,E5),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>JMK105BBJ475MV-F</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
@@ -999,17 +1096,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D6,E6),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>GRM0225C1E120GA03L</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
@@ -1038,17 +1140,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C7" s="13">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D7,E7),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>CL05F104ZO5NNNC</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="4"/>
       <c r="J7" s="7"/>
@@ -1077,17 +1184,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D8,E8),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>CC0402JRNPO9BN101</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="4"/>
       <c r="J8" s="7"/>
@@ -1116,17 +1228,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D9,E9),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>Not Fitted CAP</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="4"/>
       <c r="J9" s="7"/>
@@ -1155,17 +1272,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D10,E10),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>GRM0225C1ER80BA03L</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
@@ -1194,17 +1316,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D11,E11),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>GRM0225C1E1R2BA03L</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="4"/>
       <c r="J11" s="7"/>
@@ -1233,17 +1360,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D12,E12),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>GRM155R60G106ME44J</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="4"/>
       <c r="J12" s="7"/>
@@ -1272,18 +1404,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="4"/>
@@ -1313,18 +1445,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -1353,17 +1485,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D15,E15),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>Not Fitted</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="4"/>
       <c r="J15" s="7"/>
@@ -1392,19 +1527,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D16,E16),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>Not Fitted</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="4"/>
       <c r="J16" s="7"/>
@@ -1433,19 +1571,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D17,E17),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>Not Fitted</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="4"/>
       <c r="J17" s="7"/>
@@ -1474,17 +1615,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D18,E18),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>LQG15WH15NJ02D</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="4"/>
       <c r="J18" s="7"/>
@@ -1513,17 +1659,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="D19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D19,E19),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>MLZ2012E100MT000</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="4"/>
       <c r="J19" s="7"/>
@@ -1552,17 +1703,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D20,E20),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>LQG15HS3N9C02D</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="4"/>
       <c r="J20" s="7"/>
@@ -1591,17 +1747,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D21,E21),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>LQG15HS3N3S02D</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
@@ -1610,17 +1771,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D22,E22),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>LQG15HN2N7C02D</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
@@ -1629,18 +1795,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1650,7 +1816,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C24" s="13">
         <v>3</v>
@@ -1659,10 +1825,13 @@
         <v>100</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D24,E24),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>CRCW0603100RJNEAC</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
@@ -1671,19 +1840,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D25,E25),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>CRCW040210K0FKEDC</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
@@ -1712,17 +1884,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,19 +1902,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1750,36 +1922,46 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="G28" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D28,E28),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>CX2016DB32000D0WZRC1</v>
+      </c>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="G29" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f>VLOOKUP(CONCATENATE(D29,E29),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
+        <v>CM7V-T1A-32.768KHZ-9PF-20PPM-TA-QC</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1793,9 +1975,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1812,171 +1996,227 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
+      <c r="A13" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
+      <c r="A18" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>38</v>
+      <c r="A19" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
+      <c r="A20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
+      <c r="A21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -76,9 +76,6 @@
     <t>100nFCapacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>CL05F104ZO5NNNC</t>
-  </si>
-  <si>
     <t>FiducialFiducial:Fiducial_0.5mm_Mask1.5mm</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>LQG15WH15NJ02D</t>
   </si>
   <si>
-    <t>MLZ2012E100MT000</t>
-  </si>
-  <si>
     <t>4,7kResistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
@@ -398,6 +392,12 @@
   </si>
   <si>
     <t>LQG15HN2N7C02D</t>
+  </si>
+  <si>
+    <t>04025C104KAT4A</t>
+  </si>
+  <si>
+    <t>MLZ2012E100M</t>
   </si>
 </sst>
 </file>
@@ -525,35 +525,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -877,7 +849,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -894,7 +866,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
@@ -928,14 +900,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="4"/>
@@ -965,20 +937,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="4"/>
@@ -1008,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="10" t="str">
@@ -1052,16 +1024,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="10" t="str">
@@ -1096,16 +1068,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="10" t="str">
@@ -1140,21 +1112,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="13">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D7,E7),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>CL05F104ZO5NNNC</v>
+        <v>04025C104KAT4A</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="4"/>
@@ -1184,16 +1156,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10" t="str">
@@ -1228,16 +1200,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10" t="str">
@@ -1272,16 +1244,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="10" t="str">
@@ -1316,16 +1288,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="10" t="str">
@@ -1360,16 +1332,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="10" t="str">
@@ -1404,18 +1376,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="4"/>
@@ -1445,18 +1417,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -1485,13 +1457,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="6"/>
@@ -1527,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10" t="str">
@@ -1571,16 +1543,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="str">
@@ -1615,16 +1587,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10" t="str">
@@ -1659,21 +1631,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D19,E19),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>MLZ2012E100MT000</v>
+        <v>MLZ2012E100M</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="4"/>
@@ -1703,16 +1675,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="10" t="str">
@@ -1747,16 +1719,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="str">
@@ -1771,16 +1743,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="str">
@@ -1795,18 +1767,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1816,7 +1788,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="13">
         <v>3</v>
@@ -1825,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="10" t="str">
@@ -1840,16 +1812,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="10" t="str">
@@ -1884,17 +1856,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1902,19 +1874,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1922,16 +1894,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D28,E28),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1943,16 +1915,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G29" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D29,E29),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1961,7 +1933,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G29">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1975,10 +1947,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1987,7 +1959,7 @@
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,23 +1967,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2019,15 +1991,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2043,81 +2015,82 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -2128,36 +2101,36 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
         <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>7</v>
@@ -2165,7 +2138,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>7</v>
@@ -2173,23 +2146,23 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>7</v>
@@ -2197,29 +2170,30 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
         <v>123</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -91,12 +91,6 @@
     <t>LQG15WH15NJ02D</t>
   </si>
   <si>
-    <t>4,7kResistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>RC0402JR-074K7L</t>
-  </si>
-  <si>
     <t>1kResistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
@@ -398,6 +392,12 @@
   </si>
   <si>
     <t>MLZ2012E100M</t>
+  </si>
+  <si>
+    <t>33Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>RC0603JR-0733RL</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,6 +521,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +850,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -866,7 +867,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
@@ -900,14 +901,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="4"/>
@@ -937,20 +938,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="4"/>
@@ -980,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="10" t="str">
@@ -1024,16 +1025,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="10" t="str">
@@ -1068,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="10" t="str">
@@ -1112,16 +1113,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="13">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="10" t="str">
@@ -1156,16 +1157,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10" t="str">
@@ -1200,16 +1201,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10" t="str">
@@ -1244,16 +1245,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="10" t="str">
@@ -1288,16 +1289,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="10" t="str">
@@ -1332,16 +1333,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="10" t="str">
@@ -1376,18 +1377,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="4"/>
@@ -1417,18 +1418,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -1457,13 +1458,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="6"/>
@@ -1499,16 +1500,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10" t="str">
@@ -1543,16 +1544,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="str">
@@ -1587,16 +1588,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10" t="str">
@@ -1631,16 +1632,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="10" t="str">
@@ -1675,16 +1676,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="10" t="str">
@@ -1719,16 +1720,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="str">
@@ -1743,16 +1744,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="str">
@@ -1767,18 +1768,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1788,21 +1789,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="13">
         <v>3</v>
       </c>
       <c r="D24" s="10">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D24,E24),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>CRCW0603100RJNEAC</v>
+        <v>RC0603JR-0733RL</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1812,16 +1813,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="10" t="str">
@@ -1856,17 +1857,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1874,19 +1875,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1894,16 +1895,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G28" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D28,E28),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1915,16 +1916,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G29" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D29,E29),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1950,7 +1951,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1969,18 +1970,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1993,7 +1994,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -2020,7 +2021,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2058,39 +2059,39 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>124</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -2101,36 +2102,36 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
         <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>7</v>
@@ -2138,7 +2139,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>7</v>
@@ -2146,23 +2147,23 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>7</v>
@@ -2170,26 +2171,26 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
         <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
         <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
   <si>
     <t>Chave única</t>
   </si>
@@ -76,9 +76,6 @@
     <t>100nFCapacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>FiducialFiducial:Fiducial_0.5mm_Mask1.5mm</t>
-  </si>
-  <si>
     <t>MountingHoleMountingHole:MountingHole_2mm</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>32.768kHz</t>
   </si>
   <si>
-    <t>antena_ble:2450AT18B100</t>
-  </si>
-  <si>
     <t>Battery:BatteryHolder_MPD_BC2003_1x2032</t>
   </si>
   <si>
@@ -398,6 +392,24 @@
   </si>
   <si>
     <t>RC0603JR-0733RL</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>Fiducial:Fiducial_0.5mm_Mask1mm</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:QFN-48-1EP_6x6mm_P0.4mm_EP4.6x4.6mm</t>
+  </si>
+  <si>
+    <t>Button_Switch_THT:SW_PUSH_6mm_H4.3mm</t>
+  </si>
+  <si>
+    <t>FiducialFiducial:Fiducial_0.5mm_Mask1mm</t>
+  </si>
+  <si>
+    <t>2450AT18B100E:ANT_2450AT18B100E</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -850,7 +876,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -867,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
@@ -901,14 +927,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="4"/>
@@ -938,20 +964,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="4"/>
@@ -981,16 +1007,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="10" t="str">
@@ -1025,16 +1051,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="10" t="str">
@@ -1069,16 +1095,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="10" t="str">
@@ -1113,16 +1139,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="13">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="10" t="str">
@@ -1157,16 +1183,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10" t="str">
@@ -1201,16 +1227,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10" t="str">
@@ -1245,16 +1271,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="10" t="str">
@@ -1289,16 +1315,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="10" t="str">
@@ -1333,16 +1359,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="10" t="str">
@@ -1377,18 +1403,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="4"/>
@@ -1418,18 +1446,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -1458,15 +1488,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D15,E15),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1500,16 +1532,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10" t="str">
@@ -1544,16 +1576,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="str">
@@ -1588,16 +1620,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10" t="str">
@@ -1632,16 +1664,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="10" t="str">
@@ -1676,16 +1708,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="10" t="str">
@@ -1720,16 +1752,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="str">
@@ -1744,16 +1776,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="str">
@@ -1768,18 +1800,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1789,7 +1823,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="13">
         <v>3</v>
@@ -1798,7 +1832,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="10" t="str">
@@ -1813,16 +1847,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="10" t="str">
@@ -1857,17 +1891,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="G26" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,19 +1911,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,16 +1931,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G28" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D28,E28),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1916,16 +1952,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G29" s="10" t="str">
         <f>VLOOKUP(CONCATENATE(D29,E29),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
@@ -1934,7 +1970,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1948,10 +1984,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1970,18 +2006,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,7 +2030,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -2021,12 +2057,12 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -2034,7 +2070,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -2042,7 +2078,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -2050,48 +2086,48 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -2102,36 +2138,36 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
         <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>7</v>
@@ -2139,7 +2175,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>7</v>
@@ -2147,23 +2183,23 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>7</v>
@@ -2171,29 +2207,43 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BKR01AT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <t>Chave única</t>
   </si>
@@ -361,36 +361,21 @@
     <t>1253-1586-2-ND</t>
   </si>
   <si>
-    <t>GRM0335C1E101JA01J-ND</t>
-  </si>
-  <si>
     <t>GRM0335C1E101JA01J</t>
   </si>
   <si>
-    <t>GRM0335C1E4R7CA01J-ND</t>
-  </si>
-  <si>
     <t>GRM0335C1E4R7CA01J</t>
   </si>
   <si>
     <t>GRM0335C1E1R0CA01J</t>
   </si>
   <si>
-    <t>GRM0335C1E1R0CA01J-ND</t>
-  </si>
-  <si>
     <t>Antenna2450AT18B100E:ANT_2450AT18B100E</t>
   </si>
   <si>
     <t>Battery_CellBattery:BatteryHolder_MPD_BC2003_1x2032</t>
   </si>
   <si>
-    <t>CIH03T15NJNC</t>
-  </si>
-  <si>
-    <t>1276-6240-2-ND</t>
-  </si>
-  <si>
     <t>CV201210-100K</t>
   </si>
   <si>
@@ -415,57 +400,18 @@
     <t>2037-PFR05S-102-JNHTR-ND</t>
   </si>
   <si>
-    <t>GRM0335C1E120JA01J-ND</t>
-  </si>
-  <si>
     <t>GRM0335C1E120JA01J</t>
   </si>
   <si>
-    <t>GRM0335C1ER80CA01J</t>
-  </si>
-  <si>
-    <t>GRM0335C1ER80CA01J-ND</t>
-  </si>
-  <si>
-    <t>GRM0335C1E1R2CA01J-ND</t>
-  </si>
-  <si>
-    <t>GRM0335C1E1R2CA01J</t>
-  </si>
-  <si>
-    <t>CL21A106MQFNNNF-ND</t>
-  </si>
-  <si>
-    <t>CL21A106MQFNNNF</t>
-  </si>
-  <si>
     <t>RC0603J101CS</t>
   </si>
   <si>
     <t>1276-3776-6-ND</t>
   </si>
   <si>
-    <t>1276-3817-6-ND</t>
-  </si>
-  <si>
-    <t>RC0603J103CS</t>
-  </si>
-  <si>
     <t>Digikey Part number</t>
   </si>
   <si>
-    <t>CIH03T3N9SNC</t>
-  </si>
-  <si>
-    <t>1276-6234-2-ND</t>
-  </si>
-  <si>
-    <t>CIH05T3N3SNC</t>
-  </si>
-  <si>
-    <t>1276-6294-2-ND</t>
-  </si>
-  <si>
     <t>HK10052N7S-T</t>
   </si>
   <si>
@@ -518,6 +464,63 @@
   </si>
   <si>
     <t>497-13795-2-ND</t>
+  </si>
+  <si>
+    <t>490-7749-1-ND</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>490-11299-1-ND</t>
+  </si>
+  <si>
+    <t>490-3144-1-ND</t>
+  </si>
+  <si>
+    <t>490-3160-1-ND</t>
+  </si>
+  <si>
+    <t>GRM0335C1ER80BA01D</t>
+  </si>
+  <si>
+    <t>490-6111-1-ND</t>
+  </si>
+  <si>
+    <t>GRM0335C1H1R2CA01D</t>
+  </si>
+  <si>
+    <t>490-6119-1-ND</t>
+  </si>
+  <si>
+    <t>GRM155R60J106ME05D</t>
+  </si>
+  <si>
+    <t>490-GRM155R60J106ME05DCT-ND</t>
+  </si>
+  <si>
+    <t>HK100515NJ-T</t>
+  </si>
+  <si>
+    <t>587-1521-1-ND</t>
+  </si>
+  <si>
+    <t>L-07C3N9SV6T</t>
+  </si>
+  <si>
+    <t>712-1459-1-ND</t>
+  </si>
+  <si>
+    <t>587-4600-1-ND</t>
+  </si>
+  <si>
+    <t>HKQ0603U3N3B-T</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>311-10.0KLRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1110,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1299,7 +1309,7 @@
       </c>
       <c r="I5" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E5,F5),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1E1R0CA01J-ND</v>
+        <v>490-7749-1-ND</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
@@ -1350,7 +1360,7 @@
       </c>
       <c r="I6" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E6,F6),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1E4R7CA01J-ND</v>
+        <v>490-11299-1-ND</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="5"/>
@@ -1401,7 +1411,7 @@
       </c>
       <c r="I7" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E7,F7),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1E120JA01J-ND</v>
+        <v>490-3144-1-ND</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="5"/>
@@ -1448,11 +1458,11 @@
       <c r="G8" s="4"/>
       <c r="H8" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E8,F8),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>GRM0335C1E101JA01J</v>
+        <v>Not Fitted CAP</v>
       </c>
       <c r="I8" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E8,F8),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1E101JA01J-ND</v>
+        <v>Not Fitted CAP</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
@@ -1503,7 +1513,7 @@
       </c>
       <c r="I9" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E9,F9),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1E101JA01J-ND</v>
+        <v>490-3160-1-ND</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5"/>
@@ -1601,11 +1611,11 @@
       <c r="G11" s="4"/>
       <c r="H11" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E11,F11),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>GRM0335C1ER80CA01J</v>
+        <v>GRM0335C1ER80BA01D</v>
       </c>
       <c r="I11" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E11,F11),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1ER80CA01J-ND</v>
+        <v>490-6111-1-ND</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="5"/>
@@ -1652,11 +1662,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E12,F12),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>GRM0335C1E1R2CA01J</v>
+        <v>GRM0335C1H1R2CA01D</v>
       </c>
       <c r="I12" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E12,F12),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>GRM0335C1E1R2CA01J-ND</v>
+        <v>490-6119-1-ND</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="5"/>
@@ -1703,11 +1713,11 @@
       <c r="G13" s="4"/>
       <c r="H13" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E13,F13),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>CL21A106MQFNNNF</v>
+        <v>GRM155R60J106ME05D</v>
       </c>
       <c r="I13" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E13,F13),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>CL21A106MQFNNNF-ND</v>
+        <v>490-GRM155R60J106ME05DCT-ND</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="5"/>
@@ -2009,11 +2019,11 @@
       <c r="G19" s="4"/>
       <c r="H19" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E19,F19),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>CIH03T15NJNC</v>
+        <v>HK100515NJ-T</v>
       </c>
       <c r="I19" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E19,F19),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>1276-6240-2-ND</v>
+        <v>587-1521-1-ND</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="5"/>
@@ -2111,11 +2121,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E21,F21),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>CIH03T3N9SNC</v>
+        <v>L-07C3N9SV6T</v>
       </c>
       <c r="I21" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E21,F21),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>1276-6234-2-ND</v>
+        <v>712-1459-1-ND</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="5"/>
@@ -2162,11 +2172,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E22,F22),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>CIH05T3N3SNC</v>
+        <v>HKQ0603U3N3B-T</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E22,F22),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>1276-6294-2-ND</v>
+        <v>587-4600-1-ND</v>
       </c>
       <c r="J22" s="6"/>
     </row>
@@ -2286,11 +2296,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E26,F26),ComponentsLib!$A$2:$B$50, 2, FALSE)</f>
-        <v>RC0603J103CS</v>
+        <v>RC0402FR-0710KL</v>
       </c>
       <c r="I26" s="8" t="str">
         <f>VLOOKUP(CONCATENATE(E26,F26),ComponentsLib!$A$2:$C$50,3, FALSE)</f>
-        <v>1276-3817-6-ND</v>
+        <v>311-10.0KLRCT-ND</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
@@ -2442,7 +2452,7 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:I30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2456,10 +2466,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2479,7 @@
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2490,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>93</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
@@ -2502,18 +2512,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>96</v>
       </c>
@@ -2524,40 +2537,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>108</v>
       </c>
@@ -2568,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -2590,62 +2609,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -2656,51 +2678,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>31</v>
       </c>
@@ -2711,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>92</v>
       </c>
@@ -2722,29 +2756,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>97</v>
       </c>
@@ -2755,123 +2792,134 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36:B36">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C11 A31:C50 A12:A30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C50">
+  <conditionalFormatting sqref="B12:C30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
